--- a/src/main/resources/xlsx-templates/mas-report-2b.xlsx
+++ b/src/main/resources/xlsx-templates/mas-report-2b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProject\dtc-settlement-engine\src\main\resources\xlsx-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40D68C8-B377-4FA7-8164-D2E29BAE0798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC17ABF-B494-4C7E-9192-69EC62B0DC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2B Summary" sheetId="5" r:id="rId1"/>
@@ -76,6 +76,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -490,10 +493,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -508,28 +511,40 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -542,43 +557,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC7A168-8554-4268-ACD7-9F07E022F1C7}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -808,32 +814,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -847,89 +853,73 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1001</v>
-      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10">
-        <v>2.99</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2000</v>
-      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1001</v>
-      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
-        <v>2.99</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2000</v>
-      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="12"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
